--- a/Data/Processed/06_Metadados_Acoustic-Analysis_Acoustic-Exp.xlsx
+++ b/Data/Processed/06_Metadados_Acoustic-Analysis_Acoustic-Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Mestrado\Projeto\Artigos\Experimento\BESocio\Article_behav-S.max_V03\Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF739FEE-3BB0-41AE-8AB8-C639AA7C51E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD42306F-CFC8-48F2-B227-762BCA6C308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="165" windowWidth="14520" windowHeight="10635" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15885" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Call-frequency" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Name give to it individual</t>
   </si>
   <si>
-    <t>Individual's sex (male or female)</t>
-  </si>
-  <si>
-    <t>Frequency at 25 of the call entropy (Hz)</t>
-  </si>
-  <si>
-    <t>Frequency at 75 of the call entropy (Hz)</t>
-  </si>
-  <si>
-    <t>Peak frequency of the call (Hz)</t>
-  </si>
-  <si>
     <t>Number of calls in each treatment</t>
   </si>
   <si>
@@ -92,13 +80,49 @@
     <t>Freq_O</t>
   </si>
   <si>
-    <t>AttributesName</t>
-  </si>
-  <si>
-    <t>AttributesDefinition</t>
-  </si>
-  <si>
-    <t>Experimental treatment with different levels of acoustic information</t>
+    <t>attributeName</t>
+  </si>
+  <si>
+    <t>attributeDefinition</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>numberType</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency at 75 of the call entropy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency at 25 of the call entropy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak frequency of the call </t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>caracther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal </t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Experimental treatment with different levels os acoustic information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex of individuals </t>
   </si>
 </sst>
 </file>
@@ -416,72 +440,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -491,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAF3976-2283-47C1-9119-CC7600E38790}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,60 +570,102 @@
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -566,10 +675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D426DC8-60FC-4BE1-A325-C88BD2DFC6F5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,52 +687,88 @@
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
